--- a/test/mechanical/forecasts/ReportWeek2.xlsx
+++ b/test/mechanical/forecasts/ReportWeek2.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
-    <t>City</t>
+    <t>Location</t>
   </si>
   <si>
     <t>Quality</t>
@@ -699,25 +699,41 @@
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="11">
+        <v>0.263291367343765</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="E3" s="11">
+        <v>0.5057489238611556</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="H3" s="11">
+        <v>0.4137738998947945</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="K3" s="11">
+        <v>0.7627585613100407</v>
+      </c>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>0.9612242054199551</v>
+        <v>0.9131806738518395</v>
       </c>
       <c r="C4" s="11"/>
       <c r="E4" s="11">
-        <v>0.199654355448545</v>
+        <v>0.9883674465155902</v>
       </c>
       <c r="F4" s="11"/>
       <c r="H4" s="11">
-        <v>0.4498645845884074</v>
+        <v>0.9906281334855674</v>
       </c>
       <c r="I4" s="11"/>
       <c r="K4" s="11">
-        <v>0.3256754987296048</v>
+        <v>0.9995591623406129</v>
       </c>
       <c r="L4" s="11"/>
     </row>
@@ -725,34 +741,50 @@
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="10">
+        <v>24.04325882503515</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="E5" s="10">
+        <v>49.9865772454658</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="H5" s="10">
+        <v>40.98960661378243</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="K5" s="10">
+        <v>76.24223086111954</v>
+      </c>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>0.3845971</v>
+        <v>0.3283006</v>
       </c>
       <c r="C6" s="12">
-        <v>0.6154029</v>
+        <v>0.6716993999999999</v>
       </c>
       <c r="E6" s="12">
-        <v>0.0310548</v>
+        <v>0.4365911</v>
       </c>
       <c r="F6" s="12">
-        <v>0.9689452</v>
+        <v>0.5634089</v>
       </c>
       <c r="H6" s="12">
-        <v>0.09405579999999999</v>
+        <v>0.4430702</v>
       </c>
       <c r="I6" s="12">
-        <v>0.9059442</v>
+        <v>0.5569298</v>
       </c>
       <c r="K6" s="12">
-        <v>0.9404451</v>
+        <v>0.4876401</v>
       </c>
       <c r="L6" s="12">
-        <v>0.0595549</v>
+        <v>0.5123599</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -760,28 +792,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>23.791199</v>
+        <v>14.9962966</v>
       </c>
       <c r="C7" s="13">
-        <v>27.2129224</v>
+        <v>21.4901812</v>
       </c>
       <c r="E7" s="13">
-        <v>17.7320496</v>
+        <v>23.991193</v>
       </c>
       <c r="F7" s="13">
-        <v>35.2972848</v>
+        <v>26.994349</v>
       </c>
       <c r="H7" s="13">
-        <v>20.784019</v>
+        <v>28.8108116</v>
       </c>
       <c r="I7" s="13">
-        <v>32.1476318</v>
+        <v>31.5167234</v>
       </c>
       <c r="K7" s="13">
-        <v>34.5561584</v>
+        <v>24.9978058</v>
       </c>
       <c r="L7" s="13">
-        <v>20.1169752</v>
+        <v>25.5084802</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -789,28 +821,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C8" s="13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E8" s="13">
         <v>7</v>
       </c>
       <c r="F8" s="13">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H8" s="13">
+        <v>8</v>
+      </c>
+      <c r="I8" s="13">
         <v>10</v>
       </c>
-      <c r="I8" s="13">
-        <v>21</v>
-      </c>
       <c r="K8" s="13">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L8" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -818,25 +850,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C9" s="13">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="13">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H9" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" s="13">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K9" s="13">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="L9" s="13">
         <v>10</v>
@@ -847,25 +879,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C10" s="13">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13">
         <v>10</v>
       </c>
       <c r="F10" s="13">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H10" s="13">
         <v>14</v>
       </c>
       <c r="I10" s="13">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K10" s="13">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L10" s="13">
         <v>13</v>
@@ -876,28 +908,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E11" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="13">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H11" s="13">
         <v>16</v>
       </c>
       <c r="I11" s="13">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K11" s="13">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L11" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -905,28 +937,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C12" s="13">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E12" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="13">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H12" s="13">
+        <v>18</v>
+      </c>
+      <c r="I12" s="13">
+        <v>21</v>
+      </c>
+      <c r="K12" s="13">
+        <v>16</v>
+      </c>
+      <c r="L12" s="13">
         <v>17</v>
-      </c>
-      <c r="I12" s="13">
-        <v>29</v>
-      </c>
-      <c r="K12" s="13">
-        <v>31</v>
-      </c>
-      <c r="L12" s="13">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -934,25 +966,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>16</v>
+      </c>
+      <c r="E13" s="13">
+        <v>17</v>
+      </c>
+      <c r="F13" s="13">
         <v>20</v>
       </c>
-      <c r="C13" s="13">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13">
-        <v>14</v>
-      </c>
-      <c r="F13" s="13">
-        <v>33</v>
-      </c>
       <c r="H13" s="13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="13">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K13" s="13">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L13" s="13">
         <v>17</v>
@@ -963,28 +995,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="13">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13">
+        <v>16</v>
+      </c>
+      <c r="E14" s="13">
+        <v>17</v>
+      </c>
+      <c r="F14" s="13">
+        <v>21</v>
+      </c>
+      <c r="H14" s="13">
+        <v>22</v>
+      </c>
+      <c r="I14" s="13">
+        <v>25</v>
+      </c>
+      <c r="K14" s="13">
+        <v>19</v>
+      </c>
+      <c r="L14" s="13">
         <v>20</v>
-      </c>
-      <c r="C14" s="13">
-        <v>23</v>
-      </c>
-      <c r="E14" s="13">
-        <v>15</v>
-      </c>
-      <c r="F14" s="13">
-        <v>34</v>
-      </c>
-      <c r="H14" s="13">
-        <v>19</v>
-      </c>
-      <c r="I14" s="13">
-        <v>30</v>
-      </c>
-      <c r="K14" s="13">
-        <v>33</v>
-      </c>
-      <c r="L14" s="13">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -992,28 +1024,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="13">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13">
+        <v>17</v>
+      </c>
+      <c r="E15" s="13">
+        <v>20</v>
+      </c>
+      <c r="F15" s="13">
         <v>23</v>
       </c>
-      <c r="C15" s="13">
+      <c r="H15" s="13">
         <v>24</v>
       </c>
-      <c r="E15" s="13">
-        <v>16</v>
-      </c>
-      <c r="F15" s="13">
-        <v>34</v>
-      </c>
-      <c r="H15" s="13">
-        <v>20</v>
-      </c>
       <c r="I15" s="13">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K15" s="13">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L15" s="13">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1021,28 +1053,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="13">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13">
+        <v>21</v>
+      </c>
+      <c r="F16" s="13">
+        <v>24</v>
+      </c>
+      <c r="H16" s="13">
+        <v>26</v>
+      </c>
+      <c r="I16" s="13">
+        <v>29</v>
+      </c>
+      <c r="K16" s="13">
+        <v>22</v>
+      </c>
+      <c r="L16" s="13">
         <v>23</v>
-      </c>
-      <c r="C16" s="13">
-        <v>26</v>
-      </c>
-      <c r="E16" s="13">
-        <v>17</v>
-      </c>
-      <c r="F16" s="13">
-        <v>35</v>
-      </c>
-      <c r="H16" s="13">
-        <v>20</v>
-      </c>
-      <c r="I16" s="13">
-        <v>32</v>
-      </c>
-      <c r="K16" s="13">
-        <v>34</v>
-      </c>
-      <c r="L16" s="13">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1050,28 +1082,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="13">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13">
+        <v>20</v>
+      </c>
+      <c r="E17" s="13">
+        <v>23</v>
+      </c>
+      <c r="F17" s="13">
+        <v>26</v>
+      </c>
+      <c r="H17" s="13">
+        <v>28</v>
+      </c>
+      <c r="I17" s="13">
+        <v>30</v>
+      </c>
+      <c r="K17" s="13">
         <v>24</v>
       </c>
-      <c r="C17" s="13">
-        <v>27</v>
-      </c>
-      <c r="E17" s="13">
-        <v>18</v>
-      </c>
-      <c r="F17" s="13">
-        <v>36</v>
-      </c>
-      <c r="H17" s="13">
-        <v>21</v>
-      </c>
-      <c r="I17" s="13">
-        <v>33</v>
-      </c>
-      <c r="K17" s="13">
-        <v>35</v>
-      </c>
       <c r="L17" s="13">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1079,28 +1111,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="13">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C18" s="13">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E18" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F18" s="13">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H18" s="13">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I18" s="13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="13">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L18" s="13">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1108,28 +1140,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="13">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13">
+        <v>23</v>
+      </c>
+      <c r="E19" s="13">
         <v>27</v>
       </c>
-      <c r="C19" s="13">
+      <c r="F19" s="13">
         <v>30</v>
       </c>
-      <c r="E19" s="13">
-        <v>20</v>
-      </c>
-      <c r="F19" s="13">
-        <v>37</v>
-      </c>
       <c r="H19" s="13">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I19" s="13">
         <v>34</v>
       </c>
       <c r="K19" s="13">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L19" s="13">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1137,28 +1169,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="13">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C20" s="13">
+        <v>24</v>
+      </c>
+      <c r="E20" s="13">
+        <v>28</v>
+      </c>
+      <c r="F20" s="13">
+        <v>31</v>
+      </c>
+      <c r="H20" s="13">
+        <v>33</v>
+      </c>
+      <c r="I20" s="13">
+        <v>36</v>
+      </c>
+      <c r="K20" s="13">
+        <v>29</v>
+      </c>
+      <c r="L20" s="13">
         <v>30</v>
-      </c>
-      <c r="E20" s="13">
-        <v>20</v>
-      </c>
-      <c r="F20" s="13">
-        <v>38</v>
-      </c>
-      <c r="H20" s="13">
-        <v>24</v>
-      </c>
-      <c r="I20" s="13">
-        <v>35</v>
-      </c>
-      <c r="K20" s="13">
-        <v>38</v>
-      </c>
-      <c r="L20" s="13">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1166,28 +1198,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="13">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13">
         <v>27</v>
       </c>
-      <c r="C21" s="13">
+      <c r="E21" s="13">
+        <v>30</v>
+      </c>
+      <c r="F21" s="13">
         <v>33</v>
       </c>
-      <c r="E21" s="13">
-        <v>21</v>
-      </c>
-      <c r="F21" s="13">
-        <v>40</v>
-      </c>
       <c r="H21" s="13">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I21" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K21" s="13">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L21" s="13">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1195,28 +1227,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="13">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C22" s="13">
+        <v>28</v>
+      </c>
+      <c r="E22" s="13">
+        <v>31</v>
+      </c>
+      <c r="F22" s="13">
+        <v>35</v>
+      </c>
+      <c r="H22" s="13">
+        <v>38</v>
+      </c>
+      <c r="I22" s="13">
+        <v>40</v>
+      </c>
+      <c r="K22" s="13">
+        <v>33</v>
+      </c>
+      <c r="L22" s="13">
         <v>34</v>
-      </c>
-      <c r="E22" s="13">
-        <v>23</v>
-      </c>
-      <c r="F22" s="13">
-        <v>40</v>
-      </c>
-      <c r="H22" s="13">
-        <v>26</v>
-      </c>
-      <c r="I22" s="13">
-        <v>37</v>
-      </c>
-      <c r="K22" s="13">
-        <v>38</v>
-      </c>
-      <c r="L22" s="13">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1224,28 +1256,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="13">
+        <v>23</v>
+      </c>
+      <c r="C23" s="13">
         <v>30</v>
       </c>
-      <c r="C23" s="13">
+      <c r="E23" s="13">
+        <v>34</v>
+      </c>
+      <c r="F23" s="13">
+        <v>37</v>
+      </c>
+      <c r="H23" s="13">
+        <v>40</v>
+      </c>
+      <c r="I23" s="13">
+        <v>43</v>
+      </c>
+      <c r="K23" s="13">
         <v>35</v>
       </c>
-      <c r="E23" s="13">
-        <v>23</v>
-      </c>
-      <c r="F23" s="13">
-        <v>41</v>
-      </c>
-      <c r="H23" s="13">
-        <v>27</v>
-      </c>
-      <c r="I23" s="13">
-        <v>37</v>
-      </c>
-      <c r="K23" s="13">
-        <v>40</v>
-      </c>
       <c r="L23" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1253,28 +1285,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="13">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="13">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E24" s="13">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F24" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" s="13">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I24" s="13">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K24" s="13">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L24" s="13">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1282,28 +1314,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="13">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="13">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25" s="13">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F25" s="13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" s="13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I25" s="13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K25" s="13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L25" s="13">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1311,40 +1343,48 @@
         <v>24</v>
       </c>
       <c r="B26" s="13">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="13">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" s="13">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F26" s="13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H26" s="13">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I26" s="13">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K26" s="13">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L26" s="13">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/mechanical/forecasts/ReportWeek2.xlsx
+++ b/test/mechanical/forecasts/ReportWeek2.xlsx
@@ -700,19 +700,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <v>0.263291367343765</v>
+        <v>0.2666644027248296</v>
       </c>
       <c r="C3" s="11"/>
       <c r="E3" s="11">
-        <v>0.5057489238611556</v>
+        <v>0.5065085892085137</v>
       </c>
       <c r="F3" s="11"/>
       <c r="H3" s="11">
-        <v>0.4137738998947945</v>
+        <v>0.4174682649269585</v>
       </c>
       <c r="I3" s="11"/>
       <c r="K3" s="11">
-        <v>0.7627585613100407</v>
+        <v>0.7656109038059924</v>
       </c>
       <c r="L3" s="11"/>
     </row>
@@ -721,19 +721,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>0.9131806738518395</v>
+        <v>0.9127915685431665</v>
       </c>
       <c r="C4" s="11"/>
       <c r="E4" s="11">
-        <v>0.9883674465155902</v>
+        <v>0.9883934056129343</v>
       </c>
       <c r="F4" s="11"/>
       <c r="H4" s="11">
-        <v>0.9906281334855674</v>
+        <v>0.9905827417658983</v>
       </c>
       <c r="I4" s="11"/>
       <c r="K4" s="11">
-        <v>0.9995591623406129</v>
+        <v>0.9995603030542934</v>
       </c>
       <c r="L4" s="11"/>
     </row>
@@ -742,19 +742,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="10">
-        <v>24.04325882503515</v>
+        <v>24.34090184378238</v>
       </c>
       <c r="C5" s="10"/>
       <c r="E5" s="10">
-        <v>49.9865772454658</v>
+        <v>50.06297494600056</v>
       </c>
       <c r="F5" s="10"/>
       <c r="H5" s="10">
-        <v>40.98960661378243</v>
+        <v>41.35368584715989</v>
       </c>
       <c r="I5" s="10"/>
       <c r="K5" s="10">
-        <v>76.24223086111954</v>
+        <v>76.52742670299892</v>
       </c>
       <c r="L5" s="10"/>
     </row>
@@ -763,28 +763,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>0.3283006</v>
+        <v>0.3279243</v>
       </c>
       <c r="C6" s="12">
-        <v>0.6716993999999999</v>
+        <v>0.6720757000000001</v>
       </c>
       <c r="E6" s="12">
-        <v>0.4365911</v>
+        <v>0.4366617</v>
       </c>
       <c r="F6" s="12">
-        <v>0.5634089</v>
+        <v>0.5633383</v>
       </c>
       <c r="H6" s="12">
-        <v>0.4430702</v>
+        <v>0.4429328</v>
       </c>
       <c r="I6" s="12">
-        <v>0.5569298</v>
+        <v>0.5570672</v>
       </c>
       <c r="K6" s="12">
-        <v>0.4876401</v>
+        <v>0.4876561</v>
       </c>
       <c r="L6" s="12">
-        <v>0.5123599</v>
+        <v>0.5123439</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -792,28 +792,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>14.9962966</v>
+        <v>15.0019242</v>
       </c>
       <c r="C7" s="13">
-        <v>21.4901812</v>
+        <v>21.4999652</v>
       </c>
       <c r="E7" s="13">
-        <v>23.991193</v>
+        <v>23.99923</v>
       </c>
       <c r="F7" s="13">
-        <v>26.994349</v>
+        <v>27.0024572</v>
       </c>
       <c r="H7" s="13">
-        <v>28.8108116</v>
+        <v>28.8140564</v>
       </c>
       <c r="I7" s="13">
-        <v>31.5167234</v>
+        <v>31.5103236</v>
       </c>
       <c r="K7" s="13">
-        <v>24.9978058</v>
+        <v>25.000217</v>
       </c>
       <c r="L7" s="13">
-        <v>25.5084802</v>
+        <v>25.4994032</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1013,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="K14" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="13">
         <v>20</v>
@@ -1161,7 +1161,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="13">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12">
